--- a/sources/fact_extraction_viewpoint/economy-table28.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table28.xlsx
@@ -333,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F2FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,10 +430,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -448,30 +442,30 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:T170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -760,32 +754,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:21">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -832,19 +826,19 @@
       </c>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -894,28 +888,28 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10576,28 +10570,28 @@
       </c>
     </row>
     <row r="170" spans="2:21" ht="15" customHeight="1">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
-      <c r="P170" s="9"/>
-      <c r="Q170" s="9"/>
-      <c r="R170" s="9"/>
-      <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="7" t="s">
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="14"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+      <c r="O170" s="14"/>
+      <c r="P170" s="14"/>
+      <c r="Q170" s="14"/>
+      <c r="R170" s="14"/>
+      <c r="S170" s="14"/>
+      <c r="T170" s="14"/>
+      <c r="U170" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13588,10 +13582,10 @@
       </c>
     </row>
     <row r="222" spans="2:22">
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V222" s="13" t="s">
+      <c r="V222" s="10" t="s">
         <v>0</v>
       </c>
     </row>
